--- a/spec/fixtures/files/inexistent_choice_list.xlsx
+++ b/spec/fixtures/files/inexistent_choice_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">message</t>
+    <t xml:space="preserve">label</t>
   </si>
   <si>
     <t xml:space="preserve">select_one yes_no</t>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t xml:space="preserve">list name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
   </si>
   <si>
     <t xml:space="preserve">yesno</t>
@@ -164,7 +161,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -233,29 +230,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/spec/fixtures/files/inexistent_choice_list.xlsx
+++ b/spec/fixtures/files/inexistent_choice_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -29,19 +29,22 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one yes_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opt-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to participate?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list name</t>
+  </si>
+  <si>
     <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one yes_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opt-in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you want to participate?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list name</t>
   </si>
   <si>
     <t xml:space="preserve">yesno</t>
@@ -161,7 +164,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -230,29 +233,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
